--- a/xlslist/Acc_other_class.xlsx
+++ b/xlslist/Acc_other_class.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -520,19 +520,19 @@
         <v>215</v>
       </c>
       <c r="E3" t="n">
-        <v>66.27906976744185</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="F3" t="n">
-        <v>58.13953488372093</v>
+        <v>60.46511627906976</v>
       </c>
       <c r="G3" t="n">
-        <v>68.6046511627907</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="H3" t="n">
-        <v>69.76744186046511</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="I3" t="n">
-        <v>80.23255813953489</v>
+        <v>72.09302325581395</v>
       </c>
     </row>
     <row r="4">
@@ -554,16 +554,16 @@
         <v>64.70588235294117</v>
       </c>
       <c r="F4" t="n">
-        <v>63.23529411764706</v>
+        <v>61.76470588235294</v>
       </c>
       <c r="G4" t="n">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="H4" t="n">
         <v>61.76470588235294</v>
       </c>
-      <c r="H4" t="n">
-        <v>63.23529411764706</v>
-      </c>
       <c r="I4" t="n">
-        <v>69.11764705882352</v>
+        <v>72.05882352941177</v>
       </c>
     </row>
     <row r="5">
@@ -582,19 +582,19 @@
         <v>242</v>
       </c>
       <c r="E5" t="n">
-        <v>36.08247422680412</v>
+        <v>37.11340206185567</v>
       </c>
       <c r="F5" t="n">
-        <v>26.80412371134021</v>
+        <v>32.98969072164948</v>
       </c>
       <c r="G5" t="n">
-        <v>28.8659793814433</v>
+        <v>25.77319587628866</v>
       </c>
       <c r="H5" t="n">
-        <v>28.8659793814433</v>
+        <v>35.05154639175257</v>
       </c>
       <c r="I5" t="n">
-        <v>41.23711340206185</v>
+        <v>42.2680412371134</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>219</v>
       </c>
       <c r="E6" t="n">
-        <v>36.36363636363637</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="F6" t="n">
         <v>27.27272727272727</v>
       </c>
       <c r="G6" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="H6" t="n">
         <v>29.54545454545455</v>
-      </c>
-      <c r="H6" t="n">
-        <v>32.95454545454545</v>
       </c>
       <c r="I6" t="n">
         <v>39.77272727272727</v>
@@ -644,22 +644,22 @@
         <v>213</v>
       </c>
       <c r="E7" t="n">
-        <v>27.90697674418605</v>
+        <v>31.3953488372093</v>
       </c>
       <c r="F7" t="n">
-        <v>12.79069767441861</v>
+        <v>18.6046511627907</v>
       </c>
       <c r="G7" t="n">
         <v>17.44186046511628</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11627906976744</v>
+        <v>12.79069767441861</v>
       </c>
       <c r="I7" t="n">
         <v>29.06976744186047</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>